--- a/Excel/R0UcxrUVTrSFHMa1Fc60Kg_c913de1e3b2a44fea080bea5277bdac7_C1W1-Practice-Challenge.xlsx
+++ b/Excel/R0UcxrUVTrSFHMa1Fc60Kg_c913de1e3b2a44fea080bea5277bdac7_C1W1-Practice-Challenge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data Wrangling MOOC\01 Course 1\01 Week 1\Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526EAD81-1391-47CF-89C0-C547DAD2AAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FBF4F9-8824-435F-A130-64A0F0E5AD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'HR Data'!$A$4:$I$24</definedName>
+    <definedName name="Sahil">Instructions!$D$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,6 +35,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,14 +1085,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1084,9 +1106,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1523,74 +1542,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428535D1-C836-4F64-B2E2-7578EE4D7B3D}">
   <dimension ref="B2:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:P5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="23.42578125" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:16" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="8" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1599,7 +1618,7 @@
     </row>
     <row r="10" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C11" t="s">
@@ -1608,7 +1627,7 @@
     </row>
     <row r="12" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C13" t="s">
@@ -1617,15 +1636,19 @@
     </row>
     <row r="14" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C15" t="s">
         <v>140</v>
       </c>
+      <c r="F15" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">F15:K25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C16" t="s">
@@ -1634,18 +1657,18 @@
     </row>
     <row r="17" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>142</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C19" t="s">
@@ -1654,18 +1677,18 @@
     </row>
     <row r="20" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>143</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C22" t="s">
@@ -1674,7 +1697,7 @@
     </row>
     <row r="23" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C24" t="s">
@@ -1682,18 +1705,18 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1722,7 +1745,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
@@ -1737,55 +1760,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1180</v>
       </c>
       <c r="B4" t="s">
@@ -1794,7 +1817,7 @@
       <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H4" s="1">
@@ -1807,10 +1830,9 @@
         <v>83</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>1110</v>
       </c>
       <c r="B5" t="s">
@@ -1819,7 +1841,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1">
@@ -1832,10 +1854,9 @@
         <v>84</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>1232</v>
       </c>
       <c r="B6" t="s">
@@ -1844,7 +1865,7 @@
       <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="1">
@@ -1857,10 +1878,9 @@
         <v>85</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>1243</v>
       </c>
       <c r="B7" t="s">
@@ -1869,7 +1889,7 @@
       <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="1">
@@ -1882,10 +1902,9 @@
         <v>86</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>1248</v>
       </c>
       <c r="B8" t="s">
@@ -1894,7 +1913,7 @@
       <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="1">
@@ -1907,10 +1926,9 @@
         <v>115</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>1227</v>
       </c>
       <c r="B9" t="s">
@@ -1919,7 +1937,7 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="1">
@@ -1932,10 +1950,9 @@
         <v>87</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>1230</v>
       </c>
       <c r="B10" t="s">
@@ -1944,7 +1961,7 @@
       <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="1">
@@ -1957,10 +1974,9 @@
         <v>88</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>1162</v>
       </c>
       <c r="B11" t="s">
@@ -1969,7 +1985,7 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="1">
@@ -1982,10 +1998,9 @@
         <v>89</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>1001</v>
       </c>
       <c r="B12" t="s">
@@ -1994,7 +2009,7 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="1">
@@ -2007,10 +2022,9 @@
         <v>90</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>1224</v>
       </c>
       <c r="B13" t="s">
@@ -2019,7 +2033,7 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="1">
@@ -2032,10 +2046,9 @@
         <v>91</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>1203</v>
       </c>
       <c r="B14" t="s">
@@ -2044,7 +2057,7 @@
       <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="1">
@@ -2057,10 +2070,9 @@
         <v>92</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>1211</v>
       </c>
       <c r="B15" t="s">
@@ -2069,7 +2081,7 @@
       <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H15" s="1">
@@ -2082,10 +2094,9 @@
         <v>116</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>1198</v>
       </c>
       <c r="B16" t="s">
@@ -2094,7 +2105,7 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="1">
@@ -2107,10 +2118,9 @@
         <v>93</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>1003</v>
       </c>
       <c r="B17" t="s">
@@ -2119,7 +2129,7 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="1">
@@ -2132,10 +2142,9 @@
         <v>94</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>1235</v>
       </c>
       <c r="B18" t="s">
@@ -2144,7 +2153,7 @@
       <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="1">
@@ -2157,10 +2166,9 @@
         <v>95</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>1253</v>
       </c>
       <c r="B19" t="s">
@@ -2169,7 +2177,7 @@
       <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H19" s="1">
@@ -2182,10 +2190,9 @@
         <v>96</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>1221</v>
       </c>
       <c r="B20" t="s">
@@ -2194,7 +2201,7 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="1">
@@ -2207,10 +2214,9 @@
         <v>97</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>1186</v>
       </c>
       <c r="B21" t="s">
@@ -2219,7 +2225,7 @@
       <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="1">
@@ -2232,10 +2238,9 @@
         <v>98</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>1218</v>
       </c>
       <c r="B22" t="s">
@@ -2244,7 +2249,7 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="1">
@@ -2257,10 +2262,9 @@
         <v>117</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>1215</v>
       </c>
       <c r="B23" t="s">
@@ -2269,7 +2273,7 @@
       <c r="D23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="1">
@@ -2282,10 +2286,9 @@
         <v>99</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>1241</v>
       </c>
       <c r="B24" t="s">
@@ -2294,7 +2297,7 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="1">
@@ -2307,10 +2310,9 @@
         <v>100</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>1246</v>
       </c>
       <c r="B25" t="s">
@@ -2319,7 +2321,7 @@
       <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H25" s="1">
@@ -2332,10 +2334,9 @@
         <v>101</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>1172</v>
       </c>
       <c r="B26" t="s">
@@ -2344,7 +2345,7 @@
       <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>63</v>
       </c>
       <c r="H26" s="1">
@@ -2357,10 +2358,9 @@
         <v>102</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>1134</v>
       </c>
       <c r="B27" t="s">
@@ -2369,7 +2369,7 @@
       <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="1">
@@ -2382,10 +2382,9 @@
         <v>103</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>1150</v>
       </c>
       <c r="B28" t="s">
@@ -2394,7 +2393,7 @@
       <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="1">
@@ -2407,10 +2406,9 @@
         <v>104</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>1004</v>
       </c>
       <c r="B29" t="s">
@@ -2419,7 +2417,7 @@
       <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="1">
@@ -2432,10 +2430,9 @@
         <v>105</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>1239</v>
       </c>
       <c r="B30" t="s">
@@ -2444,7 +2441,7 @@
       <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H30" s="1">
@@ -2457,10 +2454,9 @@
         <v>106</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>1250</v>
       </c>
       <c r="B31" t="s">
@@ -2469,7 +2465,7 @@
       <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H31" s="1">
@@ -2482,10 +2478,9 @@
         <v>107</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>1192</v>
       </c>
       <c r="B32" t="s">
@@ -2494,7 +2489,7 @@
       <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="1">
@@ -2507,10 +2502,9 @@
         <v>108</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>1249</v>
       </c>
       <c r="B33" t="s">
@@ -2519,7 +2513,7 @@
       <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H33" s="1">
@@ -2532,10 +2526,9 @@
         <v>109</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>1245</v>
       </c>
       <c r="B34" t="s">
@@ -2544,7 +2537,7 @@
       <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H34" s="1">
@@ -2557,10 +2550,9 @@
         <v>110</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>1207</v>
       </c>
       <c r="B35" t="s">
@@ -2569,7 +2561,7 @@
       <c r="D35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H35" s="1">
@@ -2582,10 +2574,9 @@
         <v>111</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>1244</v>
       </c>
       <c r="B36" t="s">
@@ -2594,7 +2585,7 @@
       <c r="D36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>65</v>
       </c>
       <c r="H36" s="1">
@@ -2607,10 +2598,9 @@
         <v>112</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>1252</v>
       </c>
       <c r="B37" t="s">
@@ -2619,7 +2609,7 @@
       <c r="D37" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H37" s="1">
@@ -2632,10 +2622,9 @@
         <v>113</v>
       </c>
       <c r="K37" s="2"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>1237</v>
       </c>
       <c r="B38" t="s">
@@ -2644,7 +2633,7 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H38" s="1">
@@ -2657,7 +2646,6 @@
         <v>114</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="M38" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J38">
